--- a/wyniki_ofert_z_filtra.xlsx
+++ b/wyniki_ofert_z_filtra.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -708,7 +708,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -757,7 +757,7 @@
         <v>17.51</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -942,7 +942,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -981,7 +981,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1030,7 +1030,7 @@
         <v>16.55</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1186,7 +1186,7 @@
         <v>21.6</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>24.15</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>24.15</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1537,7 +1537,7 @@
         <v>17.77</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>23.72</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1693,7 +1693,7 @@
         <v>153.37</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>31.73</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2278,7 +2278,7 @@
         <v>14.32</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2629,7 +2629,7 @@
         <v>18.27</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2902,7 +2902,7 @@
         <v>19.84</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>24.15</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3058,7 +3058,7 @@
         <v>27.44</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3253,7 +3253,7 @@
         <v>29.78</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>26.66</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>29.86</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>39.89</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>26.66</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>20.79</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -3526,7 +3526,7 @@
         <v>27.35</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>23.8</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>33.89</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3648,6 +3648,981 @@
       <c r="I82" t="inlineStr">
         <is>
           <t>https://www.otodom.pl/pl/oferta/ostatnie-dwie-dzialki-doj-droga-asfaltowa-ID4sZ5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Sprzedam działkę budowlaną.</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ul. Partyzantów, Nieporaz, Alwernia, chrzanowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>225000</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>225000</v>
+      </c>
+      <c r="G83" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/sprzedam-dzialke-budowlana-ID4xkI8</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Okazja! OSTATNIA! działka budowlana! 15 min od Krakowa! PKP, MPK</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Wilków, Kocmyrzów-Luborzyca, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>199000</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>199000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/okazja-ostatnia-dzialka-budowlana-15-min-od-krakowa-pkp-mpk-ID4wT75</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Zieleń, przestrzeń, możliwości-szybki dojazd do Krakowa.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Wawrzeńczyce, Igołomia-Wawrzeńczyce, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>219000</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>219000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/zielen-przestrzen-mozliwosci-szybki-dojazd-do-krakowa-ID4xkEr</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Płaska działka| 16 arów| Budowlana| Celiny</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Celiny, Iwanowice, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>240000</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>240000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/plaska-dzialka-16-arow-budowlana-celiny-ID4xiAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Sprzedam działki budowlane 8-12 ar</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Prandocin, Słomniki, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>210000</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>210000</v>
+      </c>
+      <c r="G87" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/sprzedam-dzialki-budowlane-8-12-ar-ID4xhX9</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Izdebnik działka budowlana 15 ar przy lesie</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Izdebnik, Izdebnik, Lanckorona, wadowicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>240000</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>240000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>25.28</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/izdebnik-dzialka-budowlana-15-ar-przy-lesie-ID4xgKZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Działka budowlana 76 ar</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Skawina, Skawina, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G89" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-76-ar-ID4wCzl</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>14 ar w gm. Liszki |</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Czułów, Liszki, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>199000</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>199000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/14-ar-w-gm-liszki-ID4wlgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Działka budowlana w pięknej okolicy!</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Kamień, Czernichów, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>248000</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>248000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>153.37</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-w-pieknej-okolicy-ID4xcWR</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Działka z pozwoleniem na budowę w Wołowicach!</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Wołowice, Czernichów, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-z-pozwoleniem-na-budowe-w-wolowicach-ID4xbXb</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Działka budowlana 14 ar – Orłów, gm. Słomniki, pow. krakowski</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Orłów, Słomniki, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>130000</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>130000</v>
+      </c>
+      <c r="G93" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-14-ar-orlow-gm-slomniki-pow-krakowski-ID4vew3</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Działka budowlana 19,24 ar I Lipna Wola</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Lipna Wola, Słomniki, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>210000</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>210000</v>
+      </c>
+      <c r="G94" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-19-24-ar-i-lipna-wola-ID4wGPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Mogilany - działka dla miłośników ogrodów. Polecam</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ul. Górska, Mogilany, Mogilany, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G95" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/mogilany-dzialka-dla-milosnikow-ogrodow-polecam-ID4w22e</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Działka budowlana 15 a – Rusocice</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Rusocice, Czernichów, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>204000</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>204000</v>
+      </c>
+      <c r="G96" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-15-a-rusocice-ID4wkwq</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Działka pod hale blisko drogi 44</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Zelczyna, Skawina, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>240000</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>240000</v>
+      </c>
+      <c r="G97" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-pod-hale-blisko-drogi-44-ID4pBQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Wronin /gm. Koniusza |Atrakcyjna Działka Budowlana - 17 ar / 199.000zł</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Wronin, Koniusza, proszowicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>199000</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>199000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/wronin-gm-koniusza-atrakcyjna-dzialka-budowlana-17-ar-199-000zl-ID4xnh1</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Działka nr.1020 w Bolęcinie</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ul. Krótka, Bolęcin, Trzebinia, chrzanowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>173999</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>173999</v>
+      </c>
+      <c r="G99" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-nr-1020-w-bolecinie-ID4xld0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Działka nr.1021 w Bolęcinie</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ul. Krótka, Bolęcin, Trzebinia, chrzanowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>179999</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>179999</v>
+      </c>
+      <c r="G100" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-nr-1021-w-bolecinie-ID4xld1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Działka Budowlana nr.1015 Bolęcin</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ul. Krótka, Bolęcin, Trzebinia, chrzanowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>179999</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>179999</v>
+      </c>
+      <c r="G101" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-nr-1015-bolecin-ID4xld2</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Działka budowlana nr.1018 w Bolęcinie</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ul. Krótka, Bolęcin, Trzebinia, chrzanowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>189999</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>189999</v>
+      </c>
+      <c r="G102" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="H102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-nr-1018-w-bolecinie-ID4xlcZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Działka Budowlana nr.1015 Bolęcin</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ul. Krótka, Bolęcin, Trzebinia, chrzanowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>179999</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>179999</v>
+      </c>
+      <c r="G103" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="H103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-nr-1015-bolecin-ID4xlcV</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Działka budowlana 15 a Wroniec Koniusza Proszowice</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Wroniec, Koniusza, proszowicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>149000</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>149000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="H104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-15-a-wroniec-koniusza-proszowice-ID4pNeX</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Brzeźnica, działka budowlana, zielona okolica</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Brzeźnica, Brzeźnica, wadowicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>139000</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>139000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>39.89</v>
+      </c>
+      <c r="H105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/brzeznica-dzialka-budowlana-zielona-okolica-ID4xjpX</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Do sprzedania piękna działka - Bolęcin</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ul. Krakowska, Bolęcin, Trzebinia, chrzanowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>145000</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>145000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="H106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/do-sprzedania-piekna-dzialka-bolecin-ID4lrG8</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Działka budowlano-rolna</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Krzyszkowice, Myślenice, myślenicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>69000</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>69000</v>
+      </c>
+      <c r="G107" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="H107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlano-rolna-ID4xgi4</t>
         </is>
       </c>
     </row>
@@ -3662,7 +4637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3749,7 +4724,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3788,7 +4763,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3827,7 +4802,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3866,7 +4841,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3905,7 +4880,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3944,7 +4919,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3983,7 +4958,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4022,7 +4997,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4071,7 +5046,7 @@
         <v>33.12</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -4110,7 +5085,7 @@
         <v>26.66</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -4149,7 +5124,7 @@
         <v>21.6</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -4178,7 +5153,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -4227,7 +5202,7 @@
         <v>13.73</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -4266,7 +5241,7 @@
         <v>26.66</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -4305,7 +5280,7 @@
         <v>85.64</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -4334,7 +5309,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -4344,7 +5319,7 @@
         <v>33.01</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -4383,7 +5358,7 @@
         <v>33.29</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -4422,7 +5397,7 @@
         <v>14.04</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -4461,7 +5436,7 @@
         <v>14.04</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -4500,7 +5475,7 @@
         <v>34.33</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -4539,7 +5514,7 @@
         <v>33.14</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -4568,7 +5543,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -4607,7 +5582,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4656,7 +5631,7 @@
         <v>14.47</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -4685,7 +5660,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4734,7 +5709,7 @@
         <v>33.01</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -4802,7 +5777,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4841,7 +5816,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4880,7 +5855,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4919,7 +5894,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4958,7 +5933,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4997,7 +5972,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -5036,7 +6011,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -5075,7 +6050,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -5114,7 +6089,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5153,7 +6128,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5192,7 +6167,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -5231,7 +6206,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -5280,7 +6255,7 @@
         <v>33.01</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -5309,7 +6284,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -5319,7 +6294,7 @@
         <v>20.3</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -5348,7 +6323,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -5387,7 +6362,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -5436,7 +6411,7 @@
         <v>35.08</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -5465,7 +6440,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -5504,7 +6479,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -5543,7 +6518,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -5582,7 +6557,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -5621,7 +6596,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -5660,7 +6635,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -5699,7 +6674,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -5777,7 +6752,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -5826,7 +6801,7 @@
         <v>16.9</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -5855,7 +6830,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -5894,7 +6869,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -5943,7 +6918,7 @@
         <v>24.58</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -5982,7 +6957,7 @@
         <v>35.08</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -6021,7 +6996,7 @@
         <v>15.59</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -6060,11 +7035,635 @@
         <v>30.31</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>https://www.otodom.pl/pl/oferta/stanislawice-piekna-dzialka-budowlana-23-ar-245-000-zl-ID4w3IS</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Zieleń, przestrzeń, możliwości-szybki dojazd do Krakowa.</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Wawrzeńczyce, Igołomia-Wawrzeńczyce, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>219000</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>219000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/zielen-przestrzen-mozliwosci-szybki-dojazd-do-krakowa-ID4xkEr</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Działka budowlana 1334 m2 Łapczyca</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Łapczyca, Bochnia, bocheński, małopolskie</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>205000</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>205000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-1334-m2-lapczyca-ID4xjMm</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Kobylec | Działka budowlana przy Lesie - ok. 14 ar / 179.000 zł</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Kobylec, Łapanów, bocheński, małopolskie</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>179000</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>179000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/kobylec-dzialka-budowlana-przy-lesie-ok-14-ar-179-000-zl-ID4xjra</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Kobylec - działka budowlana w spokojnej okolicy.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Kobylec, Łapanów, bocheński, małopolskie</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>159000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/kobylec-dzialka-budowlana-w-spokojnej-okolicy-ID4xi9q</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Działka budowlana przy lesie oraz strumyku</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Lednica Górna, Wieliczka, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>199000</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>199000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-przy-lesie-oraz-strumyku-ID4xfeV</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Działka budowlana przy lesie oraz strumyku</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Lednica Górna, Wieliczka, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>199000</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>199000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-przy-lesie-oraz-strumyku-ID4xfeW</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Działki budowlane na sprzedaż - różne rozmiary</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Sobolów, Łapanów, bocheński, małopolskie</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>160000</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>160000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialki-budowlane-na-sprzedaz-rozne-rozmiary-ID4xeLi</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Brzezie | Widokowa działka budowlana - 17 ar / 239.000 zł</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Brzezie, Kłaj, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>239000</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>239000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/brzezie-widokowa-dzialka-budowlana-17-ar-239-000-zl-ID4xeef</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Janowice blisko Wieliczki działka uzbrojona w media</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Janowice, Wieliczka, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>240000</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>240000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/janowice-blisko-wieliczki-dzialka-uzbrojona-w-media-ID4vSiH</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Widokowa w otoczeniu zieleni - działka Zabłocie</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Zabłocie, Biskupice, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>219000</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>219000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>85.64</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/widokowa-w-otoczeniu-zieleni-dzialka-zablocie-ID4vRJP</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Tarnawa (gm. Łapanów) – Widokowe Działki Budowlane!</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Brzezowa, Łapanów, bocheński, małopolskie</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>137000</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>137000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/tarnawa-gm-lapanow-widokowe-dzialki-budowlane-ID4vBV6</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Stanisławice | Piękna Działka budowlana - 23 ar / 230.000 zł</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Stanisławice, Bochnia, bocheński, małopolskie</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>230000</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>230000</v>
+      </c>
+      <c r="G73" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/stanislawice-piekna-dzialka-budowlana-23-ar-230-000-zl-ID4w3IS</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Kompleks działek w Łyczance pod Krakowem</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ul. Ogrodowa, Łyczanka, Siepraw, myślenicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>240000</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>240000</v>
+      </c>
+      <c r="G74" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/kompleks-dzialek-w-lyczance-pod-krakowem-ID4s6Dm</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>atrakcyjna działka budowlana</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Sułów, Biskupice, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>230000</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>230000</v>
+      </c>
+      <c r="G75" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/atrakcyjna-dzialka-budowlana-ID4ou7M</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Zieleń, przestrzeń, możliwości-szybki dojazd do Krakowa.</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Wawrzeńczyce, Igołomia-Wawrzeńczyce, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>219000</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>219000</v>
+      </c>
+      <c r="G76" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/hpr/pl/oferta/zielen-przestrzen-mozliwosci-szybki-dojazd-do-krakowa-ID4xkEr</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Działka budowlana 31 ar koło Łapanowa</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Cichawka, Łapanów, bocheński, małopolskie</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>140000</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>140000</v>
+      </c>
+      <c r="G77" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-31-ar-kolo-lapanowa-ID4xh6p</t>
         </is>
       </c>
     </row>

--- a/wyniki_ofert_z_filtra.xlsx
+++ b/wyniki_ofert_z_filtra.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -708,7 +708,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -786,7 +786,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -942,7 +942,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -981,7 +981,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -6011,7 +6011,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -6869,7 +6869,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -7298,7 +7298,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -7571,7 +7571,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F77" t="n">

--- a/wyniki_ofert_z_filtra.xlsx
+++ b/wyniki_ofert_z_filtra.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +435,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="72" customWidth="1" min="1" max="1"/>
-    <col width="77" customWidth="1" min="2" max="2"/>
+    <col width="78" customWidth="1" min="2" max="2"/>
     <col width="29" customWidth="1" min="3" max="3"/>
     <col width="29" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -708,7 +708,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -786,7 +786,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -942,7 +942,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -981,7 +981,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3136,7 +3136,7 @@
         <v>25.26</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>25.26</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>25.68</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -4623,6 +4623,123 @@
       <c r="I107" t="inlineStr">
         <is>
           <t>https://www.otodom.pl/pl/oferta/dzialka-budowlano-rolna-ID4xgi4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Działka, 1 528 m², Kalwaria Zebrzydowska</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Leńcze, Kalwaria Zebrzydowska, wadowicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="H108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-1-528-m-kalwaria-zebrzydowska-ID4xoN5</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Wronin / gm. Koniusza | Słoneczna Działka budowlana -20 ar/ 250.000 zł</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Wronin, Koniusza, proszowicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="H109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/wronin-gm-koniusza-sloneczna-dzialka-budowlana-20-ar-250-000-zl-ID4xovy</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Działki budowlane w Zabierzowie Bocheńskim.</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Zabierzów Bocheński, Zabierzów Bocheński, Niepołomice, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>175000</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>175000</v>
+      </c>
+      <c r="G110" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="H110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialki-budowlane-w-zabierzowie-bochenskim-ID4xotB</t>
         </is>
       </c>
     </row>
@@ -4637,7 +4754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4646,7 +4763,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="72" customWidth="1" min="1" max="1"/>
-    <col width="66" customWidth="1" min="2" max="2"/>
+    <col width="78" customWidth="1" min="2" max="2"/>
     <col width="29" customWidth="1" min="3" max="3"/>
     <col width="29" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
@@ -4724,7 +4841,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -4763,7 +4880,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -4802,7 +4919,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4841,7 +4958,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4880,7 +4997,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4919,7 +5036,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4958,7 +5075,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4997,7 +5114,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -5153,7 +5270,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5309,7 +5426,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5543,7 +5660,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -5582,7 +5699,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -5660,7 +5777,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -5777,7 +5894,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -5816,7 +5933,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -5855,7 +5972,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -5904,7 +6021,7 @@
         <v>18.36</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -5933,7 +6050,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -5972,7 +6089,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -6011,7 +6128,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -6050,7 +6167,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -6089,7 +6206,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -6128,7 +6245,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -6167,7 +6284,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -6206,7 +6323,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -6284,7 +6401,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -6323,7 +6440,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -6362,7 +6479,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -6440,7 +6557,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -6479,7 +6596,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -6518,7 +6635,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -6557,7 +6674,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -6596,7 +6713,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -6635,7 +6752,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -6674,7 +6791,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -6830,7 +6947,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -6879,7 +6996,7 @@
         <v>8.140000000000001</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -7064,7 +7181,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -7103,7 +7220,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -7142,7 +7259,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -7181,7 +7298,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -7220,7 +7337,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -7298,7 +7415,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -7337,7 +7454,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -7376,7 +7493,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -7415,7 +7532,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -7454,7 +7571,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -7493,7 +7610,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -7532,7 +7649,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -7571,7 +7688,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -7620,7 +7737,7 @@
         <v>23.64</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -7649,7 +7766,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -7664,6 +7781,123 @@
       <c r="I77" t="inlineStr">
         <is>
           <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-31-ar-kolo-lapanowa-ID4xh6p</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Działki budowlane w Zabierzowie Bocheńskim.</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Zabierzów Bocheński, Zabierzów Bocheński, Niepołomice, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>175000</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>175000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialki-budowlane-w-zabierzowie-bochenskim-ID4xotB</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Działka usługowo-siedliskowa 78a Stadniki Dobczyce</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Stadniki, Dobczyce, myślenicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>120000</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G79" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-uslugowo-siedliskowa-78a-stadniki-dobczyce-ID4kXF5</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Działki budowlane w Zabierzowie Bocheńskim.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Zabierzów Bocheński, Zabierzów Bocheński, Niepołomice, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>175000</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>175000</v>
+      </c>
+      <c r="G80" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/hpr/pl/oferta/dzialki-budowlane-w-zabierzowie-bochenskim-ID4xotB</t>
         </is>
       </c>
     </row>

--- a/wyniki_ofert_z_filtra.xlsx
+++ b/wyniki_ofert_z_filtra.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -679,7 +679,7 @@
         <v>13.95</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -786,7 +786,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -952,7 +952,7 @@
         <v>27.57</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1849,7 +1849,7 @@
         <v>30.52</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2980,7 +2980,7 @@
         <v>251.83</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>27.23</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>22.5</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>22.16</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>25.92</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4150,7 +4150,7 @@
         <v>14.32</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -4267,7 +4267,7 @@
         <v>20.79</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>33.81</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>33.81</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>33.81</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>33.81</v>
       </c>
       <c r="H102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>33.81</v>
       </c>
       <c r="H103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>22.02</v>
       </c>
       <c r="H104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>39.89</v>
       </c>
       <c r="H105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>33.81</v>
       </c>
       <c r="H106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>10.54</v>
       </c>
       <c r="H107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>23.8</v>
       </c>
       <c r="H108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>20.79</v>
       </c>
       <c r="H109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>26.66</v>
       </c>
       <c r="H110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -5982,7 +5982,7 @@
         <v>32.19</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -6957,7 +6957,7 @@
         <v>24.58</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -7298,7 +7298,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -7571,7 +7571,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -7776,7 +7776,7 @@
         <v>35.8</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -7844,7 +7844,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -7893,11 +7893,206 @@
         <v>26.66</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
           <t>https://www.otodom.pl/hpr/pl/oferta/dzialki-budowlane-w-zabierzowie-bochenskim-ID4xotB</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Działka Budowlana | 16 ar | Jawczyce</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Jawczyce, Biskupice, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>99000</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>99000</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-16-ar-jawczyce-ID4xr4L</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Działka budowlana | Koźmice Wielkie | gm. Wieliczka | 1416 m²</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Koźmice Wielkie, Wieliczka, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>249000</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>249000</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-kozmice-wielkie-gm-wieliczka-1416-m-ID4xqLp</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>14a budowlane przy drodze z mediami, Krk Wieliczka</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Sygneczów, Wieliczka, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>152500</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>152500</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/14a-budowlane-przy-drodze-z-mediami-krk-wieliczka-ID4xpge</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Kobylec | Działka budowlana przy Lesie -  ok. 14 ar / 179.000 zł</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Kobylec, Łapanów, bocheński, małopolskie</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>179000</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>179000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/kobylec-dzialka-budowlana-przy-lesie-ok-14-ar-179-000-zl-ID4xjra</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Działka Budowlana | 16 ar | Jawczyce</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Jawczyce, Biskupice, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>99000</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>99000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/hpr/pl/oferta/dzialka-budowlana-16-ar-jawczyce-ID4xr4L</t>
         </is>
       </c>
     </row>

--- a/wyniki_ofert_z_filtra.xlsx
+++ b/wyniki_ofert_z_filtra.xlsx
@@ -1303,7 +1303,7 @@
         <v>0.49</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>0.49</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4937,6 +4937,45 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Atrakcyjna działka budowlana Grajów Wieliczka.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Grajów, Wieliczka, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>230000</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>230000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/atrakcyjna-dzialka-budowlana-grajow-wieliczka-ID4vwuO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wyniki_ofert_z_filtra.xlsx
+++ b/wyniki_ofert_z_filtra.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -708,7 +708,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -747,7 +747,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -786,7 +786,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -942,7 +942,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -981,7 +981,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F55" t="n">

--- a/wyniki_ofert_z_filtra.xlsx
+++ b/wyniki_ofert_z_filtra.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -708,7 +708,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -747,7 +747,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -786,7 +786,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -913,7 +913,7 @@
         <v>0.49</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -981,7 +981,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2200,7 +2200,7 @@
         <v>0.49</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2790,6 +2790,84 @@
       <c r="I60" t="inlineStr">
         <is>
           <t>https://www.otodom.pl/hpr/pl/oferta/14-ar-w-gm-liszki-ID4wlgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Działka blisko Krakowa w pięknej okolicy!</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Kamień, Czernichów, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>248000</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>248000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-blisko-krakowa-w-pieknej-okolicy-ID4xcWR</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Mogilany - działka dla miłośników ogrodów. Polecam</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ul. Górska, Mogilany, Mogilany, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/mogilany-dzialka-dla-milosnikow-ogrodow-polecam-ID4w22e</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2891,7 +2969,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2930,7 +3008,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2969,7 +3047,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3008,7 +3086,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3047,7 +3125,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3086,7 +3164,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3125,7 +3203,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3164,7 +3242,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3203,7 +3281,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3242,7 +3320,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3281,7 +3359,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3320,7 +3398,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -3359,7 +3437,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -3437,7 +3515,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -3486,7 +3564,7 @@
         <v>0.49</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -3515,7 +3593,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3554,7 +3632,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3593,7 +3671,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3632,7 +3710,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -3671,7 +3749,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3710,7 +3788,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3749,7 +3827,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3788,7 +3866,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3827,7 +3905,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3866,7 +3944,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3905,7 +3983,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3944,7 +4022,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3983,7 +4061,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4022,7 +4100,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4061,7 +4139,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4100,7 +4178,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4139,7 +4217,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4178,7 +4256,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4217,7 +4295,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4256,7 +4334,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4295,7 +4373,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -4334,7 +4412,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4383,7 +4461,7 @@
         <v>0.49</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -4412,7 +4490,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4451,7 +4529,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4490,7 +4568,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4529,7 +4607,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4568,7 +4646,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4607,7 +4685,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4646,7 +4724,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4685,7 +4763,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4724,7 +4802,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4763,7 +4841,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4802,7 +4880,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4841,7 +4919,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4880,7 +4958,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4929,7 +5007,7 @@
         <v>0.49</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -4958,7 +5036,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4973,6 +5051,84 @@
       <c r="I55" t="inlineStr">
         <is>
           <t>https://www.otodom.pl/pl/oferta/atrakcyjna-dzialka-budowlana-grajow-wieliczka-ID4vwuO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Działka budowlana 20a, koło Wieliczki</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Dobranowice, Wieliczka, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>245000</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>245000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-20a-kolo-wieliczki-ID4xseG</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Działka budowlana 20a, koło Wieliczki</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Dobranowice, Wieliczka, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>245000</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>245000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/hpr/pl/oferta/dzialka-budowlana-20a-kolo-wieliczki-ID4xseG</t>
         </is>
       </c>
     </row>

--- a/wyniki_ofert_z_filtra.xlsx
+++ b/wyniki_ofert_z_filtra.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -708,7 +708,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -747,7 +747,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -786,7 +786,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -942,7 +942,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -991,7 +991,7 @@
         <v>0.49</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1186,7 +1186,7 @@
         <v>0.49</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2868,6 +2868,123 @@
       <c r="I62" t="inlineStr">
         <is>
           <t>https://www.otodom.pl/pl/oferta/mogilany-dzialka-dla-milosnikow-ogrodow-polecam-ID4w22e</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Cała budowlana - tanio!! Cicha i spokojna okolica</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Igołomia, Igołomia-Wawrzeńczyce, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>199000</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>199000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/cala-budowlana-tanio-cicha-i-spokojna-okolica-ID4r26n</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Cicha, zielona, z dala od zgiełku</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Prandocin-Wysiołek, Słomniki, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>179000</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>179000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/cicha-zielona-z-dala-od-zgielku-ID4uPsJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Cała budowlana - tanio!! Cicha i spokojna okolica</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Igołomia, Igołomia-Wawrzeńczyce, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>199000</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>199000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/hpr/pl/oferta/cala-budowlana-tanio-cicha-i-spokojna-okolica-ID4r26n</t>
         </is>
       </c>
     </row>
@@ -2882,7 +2999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2969,7 +3086,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3008,7 +3125,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3047,7 +3164,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3086,7 +3203,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3125,7 +3242,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3164,7 +3281,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3203,7 +3320,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3242,7 +3359,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3281,7 +3398,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3320,7 +3437,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3359,7 +3476,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3398,7 +3515,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -3437,7 +3554,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -3515,7 +3632,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -3593,7 +3710,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3632,7 +3749,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3671,7 +3788,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3720,7 +3837,7 @@
         <v>0.49</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -3749,7 +3866,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3788,7 +3905,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3827,7 +3944,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3866,7 +3983,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3905,7 +4022,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3944,7 +4061,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3983,7 +4100,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4022,7 +4139,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4061,7 +4178,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4100,7 +4217,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4139,7 +4256,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4178,7 +4295,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4217,7 +4334,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4256,7 +4373,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4295,7 +4412,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4334,7 +4451,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4373,7 +4490,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -4412,7 +4529,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4490,7 +4607,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4529,7 +4646,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4568,7 +4685,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4607,7 +4724,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4646,7 +4763,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4685,7 +4802,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4724,7 +4841,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4763,7 +4880,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4802,7 +4919,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4841,7 +4958,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4880,7 +4997,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4919,7 +5036,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4958,7 +5075,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -5036,7 +5153,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -5075,7 +5192,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -5124,11 +5241,128 @@
         <v>0.49</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>https://www.otodom.pl/hpr/pl/oferta/dzialka-budowlana-20a-kolo-wieliczki-ID4xseG</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Cała budowlana - tanio!! Cicha i spokojna okolica</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Igołomia, Igołomia-Wawrzeńczyce, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>199000</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>199000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/cala-budowlana-tanio-cicha-i-spokojna-okolica-ID4r26n</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Działka budowlana Sygneczów gm. Wieliczka</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Sygneczów, Wieliczka, wielicki, małopolskie</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>152500</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>152500</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/dzialka-budowlana-sygneczow-gm-wieliczka-ID4xsHw</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Cała budowlana - tanio!! Cicha i spokojna okolica</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Igołomia, Igołomia-Wawrzeńczyce, krakowski, małopolskie</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>199000</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>199000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/hpr/pl/oferta/cala-budowlana-tanio-cicha-i-spokojna-okolica-ID4r26n</t>
         </is>
       </c>
     </row>

--- a/wyniki_ofert_z_filtra.xlsx
+++ b/wyniki_ofert_z_filtra.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -708,7 +708,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -747,7 +747,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -786,7 +786,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -942,7 +942,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -2980,7 +2980,7 @@
         <v>0.49</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3798,7 +3798,7 @@
         <v>0.49</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -5358,7 +5358,7 @@
         <v>0.49</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
